--- a/parse table.xlsx
+++ b/parse table.xlsx
@@ -500,17 +500,14 @@
     <font>
       <b/>
       <sz val="12.000000"/>
-      <color indexed="64"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="12.000000"/>
-      <color indexed="64"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10.000000"/>
-      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -1118,7 +1115,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/parse table.xlsx
+++ b/parse table.xlsx
@@ -6,7 +6,8 @@
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Parse Table" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="FirstFollow" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -15,475 +16,475 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
+    <t>Nonterminal</t>
+  </si>
+  <si>
+    <t>FUNC</t>
+  </si>
+  <si>
+    <t>IDENT</t>
+  </si>
+  <si>
+    <t>TYPEOF</t>
+  </si>
+  <si>
+    <t>LPAREN</t>
+  </si>
+  <si>
+    <t>RPAREN</t>
+  </si>
+  <si>
+    <t>BEGIN</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>COMMA</t>
+  </si>
+  <si>
+    <t>LBRACKET</t>
+  </si>
+  <si>
+    <t>RBRACKET</t>
+  </si>
+  <si>
+    <t>NUM</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>VOID</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>SEMI</t>
+  </si>
+  <si>
+    <t>ASSIGN</t>
+  </si>
+  <si>
+    <t>PRINT</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>THEN</t>
+  </si>
+  <si>
+    <t>ELSE</t>
+  </si>
+  <si>
+    <t>WHILE</t>
+  </si>
+  <si>
+    <t>EXPROP</t>
+  </si>
+  <si>
+    <t>RELOP</t>
+  </si>
+  <si>
+    <t>TERMOP</t>
+  </si>
+  <si>
+    <t>NUM_LIT</t>
+  </si>
+  <si>
+    <t>BOOL_LIT</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>DOT</t>
+  </si>
+  <si>
+    <t>SIZE</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">program -&gt; decl_list</t>
+  </si>
+  <si>
+    <t>decl_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decl_list -&gt; decl_list'</t>
+  </si>
+  <si>
+    <t>decl_list'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decl_list' -&gt; fun_decl decl_list'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decl_list' -&gt; ''</t>
+  </si>
+  <si>
+    <t>fun_decl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fun_decl -&gt; FUNC IDENT TYPEOF prim_type LPAREN params RPAREN BEGIN local_decls stmt_list END</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t xml:space="preserve">params -&gt; param_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">params -&gt; ''</t>
+  </si>
+  <si>
+    <t>param_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">param_list -&gt; param param_list'</t>
+  </si>
+  <si>
+    <t>param_list'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">param_list' -&gt; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">param_list' -&gt; COMMA param param_list'</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t xml:space="preserve">param -&gt; IDENT TYPEOF type_spec</t>
+  </si>
+  <si>
+    <t>type_spec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type_spec -&gt; prim_type type_spec'</t>
+  </si>
+  <si>
+    <t>type_spec'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type_spec' -&gt; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type_spec' -&gt; LBRACKET RBRACKET</t>
+  </si>
+  <si>
+    <t>prim_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prim_type -&gt; NUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prim_type -&gt; BOOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prim_type -&gt; VOID</t>
+  </si>
+  <si>
+    <t>local_decls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local_decls -&gt; local_decls'</t>
+  </si>
+  <si>
+    <t>local_decls'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local_decls' -&gt; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local_decls' -&gt; local_decl local_decls'</t>
+  </si>
+  <si>
+    <t>local_decl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local_decl -&gt; VAR IDENT TYPEOF type_spec SEMI</t>
+  </si>
+  <si>
+    <t>stmt_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stmt_list -&gt; stmt_list'</t>
+  </si>
+  <si>
+    <t>stmt_list'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stmt_list' -&gt; stmt stmt_list'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stmt_list' -&gt; ''</t>
+  </si>
+  <si>
+    <t>stmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stmt -&gt; assign_stmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stmt -&gt; compound_stmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stmt -&gt; print_stmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stmt -&gt; return_stmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stmt -&gt; if_stmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stmt -&gt; while_stmt</t>
+  </si>
+  <si>
+    <t>assign_stmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign_stmt -&gt; IDENT ASSIGN expr SEMI</t>
+  </si>
+  <si>
+    <t>print_stmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print_stmt -&gt; PRINT expr SEMI</t>
+  </si>
+  <si>
+    <t>return_stmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return_stmt -&gt; RETURN expr SEMI</t>
+  </si>
+  <si>
+    <t>if_stmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if_stmt -&gt; IF LPAREN expr RPAREN THEN stmt_list ELSE stmt_list END</t>
+  </si>
+  <si>
+    <t>while_stmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while_stmt -&gt; WHILE LPAREN expr RPAREN BEGIN stmt_list END</t>
+  </si>
+  <si>
+    <t>compound_stmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compound_stmt -&gt; BEGIN local_decls stmt_list END</t>
+  </si>
+  <si>
+    <t>args</t>
+  </si>
+  <si>
+    <t xml:space="preserve">args -&gt; arg_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">args -&gt; ''</t>
+  </si>
+  <si>
+    <t>arg_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arg_list -&gt; expr arg_list'</t>
+  </si>
+  <si>
+    <t>arg_list'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arg_list' -&gt; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arg_list' -&gt; COMMA expr arg_list'</t>
+  </si>
+  <si>
+    <t>expr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expr -&gt; term expr'</t>
+  </si>
+  <si>
+    <t>expr'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expr' -&gt; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expr' -&gt; EXPROP term expr'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expr' -&gt; RELOP term expr'</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term -&gt; factor term'</t>
+  </si>
+  <si>
+    <t>term'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term' -&gt; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term' -&gt; TERMOP factor term'</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor -&gt; IDENT factor'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor -&gt; LPAREN expr RPAREN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor -&gt; NUM_LIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor -&gt; BOOL_LIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor -&gt; NEW prim_type LBRACKET expr RBRACKET</t>
+  </si>
+  <si>
+    <t>factor'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor' -&gt; LPAREN args RPAREN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor' -&gt; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor' -&gt; LBRACKET expr RBRACKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor' -&gt; DOT SIZE</t>
+  </si>
+  <si>
     <t>FIRST</t>
   </si>
   <si>
     <t>FOLLOW</t>
   </si>
   <si>
-    <t>Nonterminal</t>
-  </si>
-  <si>
-    <t>FUNC</t>
-  </si>
-  <si>
-    <t>IDENT</t>
-  </si>
-  <si>
-    <t>TYPEOF</t>
-  </si>
-  <si>
-    <t>LPAREN</t>
-  </si>
-  <si>
-    <t>RPAREN</t>
-  </si>
-  <si>
-    <t>BEGIN</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>COMMA</t>
-  </si>
-  <si>
-    <t>LBRACKET</t>
-  </si>
-  <si>
-    <t>RBRACKET</t>
-  </si>
-  <si>
-    <t>NUM</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>VOID</t>
-  </si>
-  <si>
-    <t>VAR</t>
-  </si>
-  <si>
-    <t>SEMI</t>
-  </si>
-  <si>
-    <t>ASSIGN</t>
-  </si>
-  <si>
-    <t>PRINT</t>
-  </si>
-  <si>
-    <t>RETURN</t>
-  </si>
-  <si>
-    <t>IF</t>
-  </si>
-  <si>
-    <t>THEN</t>
-  </si>
-  <si>
-    <t>ELSE</t>
-  </si>
-  <si>
-    <t>WHILE</t>
-  </si>
-  <si>
-    <t>EXPROP</t>
-  </si>
-  <si>
-    <t>RELOP</t>
-  </si>
-  <si>
-    <t>TERMOP</t>
-  </si>
-  <si>
-    <t>NUM_LIT</t>
-  </si>
-  <si>
-    <t>BOOL_LIT</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>DOT</t>
-  </si>
-  <si>
-    <t>SIZE</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
     <t>{'',FUNC}</t>
   </si>
   <si>
     <t>{$}</t>
   </si>
   <si>
-    <t>program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">program -&gt; decl_list</t>
-  </si>
-  <si>
-    <t>decl_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decl_list -&gt; decl_list'</t>
-  </si>
-  <si>
-    <t>decl_list'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decl_list' -&gt; fun_decl decl_list'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decl_list' -&gt; ''</t>
-  </si>
-  <si>
     <t>{FUNC}</t>
   </si>
   <si>
     <t>{$,FUNC}</t>
   </si>
   <si>
-    <t>fun_decl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fun_decl -&gt; FUNC IDENT TYPEOF prim_type LPAREN params RPAREN BEGIN local_decls stmt_list END</t>
-  </si>
-  <si>
     <t>{'',IDENT}</t>
   </si>
   <si>
     <t>{RPAREN}</t>
   </si>
   <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t xml:space="preserve">params -&gt; param_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">params -&gt; ''</t>
-  </si>
-  <si>
     <t>{IDENT}</t>
   </si>
   <si>
-    <t>param_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">param_list -&gt; param param_list'</t>
-  </si>
-  <si>
     <t>{COMMA,''}</t>
   </si>
   <si>
-    <t>param_list'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">param_list' -&gt; ''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">param_list' -&gt; COMMA param param_list'</t>
-  </si>
-  <si>
     <t>{COMMA,RPAREN}</t>
   </si>
   <si>
-    <t>param</t>
-  </si>
-  <si>
-    <t xml:space="preserve">param -&gt; IDENT TYPEOF type_spec</t>
-  </si>
-  <si>
     <t>{NUM,BOOL,VOID}</t>
   </si>
   <si>
     <t>{COMMA,RPAREN,SEMI}</t>
   </si>
   <si>
-    <t>type_spec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type_spec -&gt; prim_type type_spec'</t>
-  </si>
-  <si>
     <t>{LBRACKET,''}</t>
   </si>
   <si>
-    <t>type_spec'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type_spec' -&gt; ''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type_spec' -&gt; LBRACKET RBRACKET</t>
-  </si>
-  <si>
     <t>{LPAREN,LBRACKET,COMMA,RPAREN,SEMI}</t>
   </si>
   <si>
-    <t>prim_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prim_type -&gt; NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prim_type -&gt; BOOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prim_type -&gt; VOID</t>
-  </si>
-  <si>
     <t>{'',VAR}</t>
   </si>
   <si>
     <t>{$,FUNC,IDENT,PRINT,RETURN,IF,WHILE,BEGIN,END,ELSE}</t>
   </si>
   <si>
-    <t>local_decls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">local_decls -&gt; local_decls'</t>
-  </si>
-  <si>
-    <t>local_decls'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">local_decls' -&gt; ''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">local_decls' -&gt; local_decl local_decls'</t>
-  </si>
-  <si>
     <t>{VAR}</t>
   </si>
   <si>
     <t>{$,FUNC,IDENT,PRINT,RETURN,IF,WHILE,BEGIN,END,VAR,ELSE}</t>
   </si>
   <si>
-    <t>local_decl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">local_decl -&gt; VAR IDENT TYPEOF type_spec SEMI</t>
-  </si>
-  <si>
     <t>{'',IDENT,PRINT,RETURN,IF,WHILE,BEGIN}</t>
   </si>
   <si>
     <t>{END,ELSE}</t>
   </si>
   <si>
-    <t>stmt_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stmt_list -&gt; stmt_list'</t>
-  </si>
-  <si>
-    <t>stmt_list'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stmt_list' -&gt; stmt stmt_list'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stmt_list' -&gt; ''</t>
-  </si>
-  <si>
     <t>{IDENT,PRINT,RETURN,IF,WHILE,BEGIN}</t>
   </si>
   <si>
     <t>{END,IDENT,PRINT,RETURN,IF,WHILE,BEGIN,ELSE}</t>
   </si>
   <si>
-    <t>stmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stmt -&gt; assign_stmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stmt -&gt; compound_stmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stmt -&gt; print_stmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stmt -&gt; return_stmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stmt -&gt; if_stmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stmt -&gt; while_stmt</t>
-  </si>
-  <si>
-    <t>assign_stmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assign_stmt -&gt; IDENT ASSIGN expr SEMI</t>
-  </si>
-  <si>
     <t>{PRINT}</t>
   </si>
   <si>
-    <t>print_stmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">print_stmt -&gt; PRINT expr SEMI</t>
-  </si>
-  <si>
     <t>{RETURN}</t>
   </si>
   <si>
-    <t>return_stmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">return_stmt -&gt; RETURN expr SEMI</t>
-  </si>
-  <si>
     <t>{IF}</t>
   </si>
   <si>
-    <t>if_stmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if_stmt -&gt; IF LPAREN expr RPAREN THEN stmt_list ELSE stmt_list END</t>
-  </si>
-  <si>
     <t>{WHILE}</t>
   </si>
   <si>
-    <t>while_stmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">while_stmt -&gt; WHILE LPAREN expr RPAREN BEGIN stmt_list END</t>
-  </si>
-  <si>
     <t>{BEGIN}</t>
   </si>
   <si>
-    <t>compound_stmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compound_stmt -&gt; BEGIN local_decls stmt_list END</t>
-  </si>
-  <si>
     <t>{'',IDENT,LPAREN,NUM_LIT,BOOL_LIT,NEW}</t>
   </si>
   <si>
-    <t>args</t>
-  </si>
-  <si>
-    <t xml:space="preserve">args -&gt; arg_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">args -&gt; ''</t>
-  </si>
-  <si>
     <t>{IDENT,LPAREN,NUM_LIT,BOOL_LIT,NEW}</t>
   </si>
   <si>
-    <t>arg_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arg_list -&gt; expr arg_list'</t>
-  </si>
-  <si>
-    <t>arg_list'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arg_list' -&gt; ''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arg_list' -&gt; COMMA expr arg_list'</t>
-  </si>
-  <si>
     <t>{SEMI,RPAREN,COMMA,RBRACKET}</t>
   </si>
   <si>
-    <t>expr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expr -&gt; term expr'</t>
-  </si>
-  <si>
     <t>{EXPROP,RELOP,''}</t>
   </si>
   <si>
-    <t>expr'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expr' -&gt; ''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expr' -&gt; EXPROP term expr'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expr' -&gt; RELOP term expr'</t>
-  </si>
-  <si>
     <t>{EXPROP,RELOP,SEMI,RPAREN,COMMA,RBRACKET}</t>
   </si>
   <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">term -&gt; factor term'</t>
-  </si>
-  <si>
     <t>{TERMOP,''}</t>
   </si>
   <si>
-    <t>term'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">term' -&gt; ''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">term' -&gt; TERMOP factor term'</t>
-  </si>
-  <si>
     <t>{TERMOP,EXPROP,RELOP,SEMI,RPAREN,COMMA,RBRACKET}</t>
   </si>
   <si>
-    <t>factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor -&gt; IDENT factor'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor -&gt; LPAREN expr RPAREN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor -&gt; NUM_LIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor -&gt; BOOL_LIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor -&gt; NEW prim_type LBRACKET expr RBRACKET</t>
-  </si>
-  <si>
     <t>{LPAREN,LBRACKET,DOT,''}</t>
-  </si>
-  <si>
-    <t>factor'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor' -&gt; LPAREN args RPAREN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor' -&gt; ''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor' -&gt; LBRACKET expr RBRACKET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor' -&gt; DOT SIZE</t>
   </si>
 </sst>
 </file>
@@ -1121,8 +1122,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="53.00390625"/>
-    <col customWidth="1" min="2" max="2" width="82.57421875"/>
+    <col customWidth="1" hidden="1" min="1" max="1" width="53.00390625"/>
+    <col customWidth="1" hidden="1" min="2" max="2" width="82.57421875"/>
     <col customWidth="1" min="3" max="3" width="18.57421875"/>
     <col customWidth="1" min="4" max="4" width="111.140625"/>
     <col customWidth="1" min="5" max="5" width="44.8515625"/>
@@ -1158,121 +1159,113 @@
   </cols>
   <sheetData>
     <row r="1" ht="15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+    </row>
+    <row r="2" ht="15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="2" ht="15">
-      <c r="A2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1304,21 +1297,17 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" ht="15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1350,21 +1339,17 @@
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
       <c r="AH3" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="15">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1396,21 +1381,17 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
       <c r="AH4" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" ht="15">
-      <c r="A5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1444,23 +1425,19 @@
       <c r="AH5" s="3"/>
     </row>
     <row r="6" ht="15">
-      <c r="A6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1490,18 +1467,14 @@
       <c r="AH6" s="3"/>
     </row>
     <row r="7" ht="15">
-      <c r="A7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1534,26 +1507,22 @@
       <c r="AH7" s="3"/>
     </row>
     <row r="8" ht="15">
-      <c r="A8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1580,18 +1549,14 @@
       <c r="AH8" s="3"/>
     </row>
     <row r="9" ht="15">
-      <c r="A9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1624,14 +1589,10 @@
       <c r="AH9" s="3"/>
     </row>
     <row r="10" ht="15">
-      <c r="A10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1644,13 +1605,13 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -1672,29 +1633,25 @@
       <c r="AH10" s="3"/>
     </row>
     <row r="11" ht="15">
-      <c r="A11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1702,7 +1659,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1722,14 +1679,10 @@
       <c r="AH11" s="3"/>
     </row>
     <row r="12" ht="15">
-      <c r="A12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1742,13 +1695,13 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -1770,29 +1723,25 @@
       <c r="AH12" s="3"/>
     </row>
     <row r="13" ht="15">
-      <c r="A13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1801,25 +1750,25 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="W13" s="3"/>
       <c r="X13" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
@@ -1830,33 +1779,29 @@
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
       <c r="AH13" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" ht="15">
-      <c r="A14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1865,25 +1810,25 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
@@ -1894,18 +1839,14 @@
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" ht="15">
-      <c r="A15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1921,7 +1862,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -1942,27 +1883,23 @@
       <c r="AH15" s="3"/>
     </row>
     <row r="16" ht="15">
-      <c r="A16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1974,20 +1911,20 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="W16" s="3"/>
       <c r="X16" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
@@ -2000,27 +1937,23 @@
       <c r="AH16" s="3"/>
     </row>
     <row r="17" ht="15">
-      <c r="A17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2032,20 +1965,20 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
@@ -2058,24 +1991,20 @@
       <c r="AH17" s="3"/>
     </row>
     <row r="18" ht="15">
-      <c r="A18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -2088,18 +2017,18 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
@@ -2112,18 +2041,14 @@
       <c r="AH18" s="3"/>
     </row>
     <row r="19" ht="15">
-      <c r="A19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -2156,14 +2081,10 @@
       <c r="AH19" s="3"/>
     </row>
     <row r="20" ht="15">
-      <c r="A20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -2182,7 +2103,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -2200,14 +2121,10 @@
       <c r="AH20" s="3"/>
     </row>
     <row r="21" ht="15">
-      <c r="A21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2227,7 +2144,7 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="2" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
@@ -2244,14 +2161,10 @@
       <c r="AH21" s="3"/>
     </row>
     <row r="22" ht="15">
-      <c r="A22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2272,7 +2185,7 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
@@ -2288,14 +2201,10 @@
       <c r="AH22" s="3"/>
     </row>
     <row r="23" ht="15">
-      <c r="A23" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2319,7 +2228,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
@@ -2332,14 +2241,10 @@
       <c r="AH23" s="3"/>
     </row>
     <row r="24" ht="15">
-      <c r="A24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -2347,7 +2252,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -2376,25 +2281,21 @@
       <c r="AH24" s="3"/>
     </row>
     <row r="25" ht="15">
-      <c r="A25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -2417,35 +2318,31 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
     </row>
     <row r="26" ht="15">
-      <c r="A26" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="2" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="2" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -2469,39 +2366,35 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="2" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
     </row>
     <row r="27" ht="15">
-      <c r="A27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="2" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="2" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -2528,22 +2421,18 @@
       <c r="AH27" s="3"/>
     </row>
     <row r="28" ht="15">
-      <c r="A28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="2" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="2" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -2567,50 +2456,46 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="2" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
     </row>
     <row r="29" ht="15">
-      <c r="A29" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="2" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="2" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="2" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="2" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -2620,10 +2505,10 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="2" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
@@ -2634,22 +2519,18 @@
       <c r="AH29" s="3"/>
     </row>
     <row r="30" ht="15">
-      <c r="A30" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="2" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="2" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -2673,50 +2554,46 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="2" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
     </row>
     <row r="31" ht="15">
-      <c r="A31" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="2" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="2" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="2" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="2" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
@@ -2726,13 +2603,13 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="2" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
@@ -2742,22 +2619,18 @@
       <c r="AH31" s="3"/>
     </row>
     <row r="32" ht="15">
-      <c r="A32" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="2" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="2" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -2781,54 +2654,50 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="2" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
       <c r="AH32" s="4"/>
     </row>
     <row r="33" ht="15">
-      <c r="A33" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="2" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="2" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="2" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
@@ -2838,19 +2707,19 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="2" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
       <c r="AF33" s="2" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="AG33" s="5"/>
       <c r="AH33" s="6"/>
@@ -2865,4 +2734,389 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="52.57421875"/>
+    <col customWidth="1" min="2" max="2" width="76.28125"/>
+    <col customWidth="1" min="3" max="3" width="18.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="15">
+      <c r="A2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" ht="15">
+      <c r="A3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" ht="15">
+      <c r="A4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" ht="15">
+      <c r="A5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" ht="15">
+      <c r="A6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" ht="15">
+      <c r="A7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" ht="15">
+      <c r="A8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" ht="15">
+      <c r="A9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" ht="15">
+      <c r="A10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" ht="15">
+      <c r="A11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" ht="15">
+      <c r="A12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" ht="15">
+      <c r="A13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" ht="15">
+      <c r="A14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" ht="15">
+      <c r="A15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" ht="15">
+      <c r="A16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" ht="15">
+      <c r="A17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" ht="15">
+      <c r="A18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" ht="15">
+      <c r="A19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" ht="15">
+      <c r="A20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" ht="15">
+      <c r="A21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" ht="15">
+      <c r="A22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" ht="15">
+      <c r="A23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" ht="15">
+      <c r="A24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" ht="15">
+      <c r="A25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" ht="15">
+      <c r="A26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" ht="15">
+      <c r="A27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" ht="15">
+      <c r="A28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" ht="15">
+      <c r="A29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" ht="15">
+      <c r="A30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" ht="15">
+      <c r="A31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" ht="15">
+      <c r="A32" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" ht="15">
+      <c r="A33" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/parse table.xlsx
+++ b/parse table.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\there\IdeaProjects\470_SyntaxChecker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A731DF4C-657C-4FFB-A713-744D2F6DE293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Parse Table" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="FirstFollow" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="FirstFollow" sheetId="2" r:id="rId1"/>
+    <sheet name="Parse Table" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="157">
   <si>
     <t>Nonterminal</t>
   </si>
@@ -115,268 +122,268 @@
     <t>program</t>
   </si>
   <si>
-    <t xml:space="preserve">program -&gt; decl_list</t>
+    <t>program -&gt; decl_list</t>
   </si>
   <si>
     <t>decl_list</t>
   </si>
   <si>
-    <t xml:space="preserve">decl_list -&gt; decl_list'</t>
+    <t>decl_list -&gt; decl_list'</t>
   </si>
   <si>
     <t>decl_list'</t>
   </si>
   <si>
-    <t xml:space="preserve">decl_list' -&gt; fun_decl decl_list'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decl_list' -&gt; ''</t>
+    <t>decl_list' -&gt; fun_decl decl_list'</t>
+  </si>
+  <si>
+    <t>decl_list' -&gt; ''</t>
   </si>
   <si>
     <t>fun_decl</t>
   </si>
   <si>
-    <t xml:space="preserve">fun_decl -&gt; FUNC IDENT TYPEOF prim_type LPAREN params RPAREN BEGIN local_decls stmt_list END</t>
+    <t>fun_decl -&gt; FUNC IDENT TYPEOF prim_type LPAREN params RPAREN BEGIN local_decls stmt_list END</t>
   </si>
   <si>
     <t>params</t>
   </si>
   <si>
-    <t xml:space="preserve">params -&gt; param_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">params -&gt; ''</t>
+    <t>params -&gt; param_list</t>
+  </si>
+  <si>
+    <t>params -&gt; ''</t>
   </si>
   <si>
     <t>param_list</t>
   </si>
   <si>
-    <t xml:space="preserve">param_list -&gt; param param_list'</t>
+    <t>param_list -&gt; param param_list'</t>
   </si>
   <si>
     <t>param_list'</t>
   </si>
   <si>
-    <t xml:space="preserve">param_list' -&gt; ''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">param_list' -&gt; COMMA param param_list'</t>
+    <t>param_list' -&gt; ''</t>
+  </si>
+  <si>
+    <t>param_list' -&gt; COMMA param param_list'</t>
   </si>
   <si>
     <t>param</t>
   </si>
   <si>
-    <t xml:space="preserve">param -&gt; IDENT TYPEOF type_spec</t>
+    <t>param -&gt; IDENT TYPEOF type_spec</t>
   </si>
   <si>
     <t>type_spec</t>
   </si>
   <si>
-    <t xml:space="preserve">type_spec -&gt; prim_type type_spec'</t>
+    <t>type_spec -&gt; prim_type type_spec'</t>
   </si>
   <si>
     <t>type_spec'</t>
   </si>
   <si>
-    <t xml:space="preserve">type_spec' -&gt; ''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type_spec' -&gt; LBRACKET RBRACKET</t>
+    <t>type_spec' -&gt; ''</t>
+  </si>
+  <si>
+    <t>type_spec' -&gt; LBRACKET RBRACKET</t>
   </si>
   <si>
     <t>prim_type</t>
   </si>
   <si>
-    <t xml:space="preserve">prim_type -&gt; NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prim_type -&gt; BOOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prim_type -&gt; VOID</t>
+    <t>prim_type -&gt; NUM</t>
+  </si>
+  <si>
+    <t>prim_type -&gt; BOOL</t>
+  </si>
+  <si>
+    <t>prim_type -&gt; VOID</t>
   </si>
   <si>
     <t>local_decls</t>
   </si>
   <si>
-    <t xml:space="preserve">local_decls -&gt; local_decls'</t>
+    <t>local_decls -&gt; local_decls'</t>
   </si>
   <si>
     <t>local_decls'</t>
   </si>
   <si>
-    <t xml:space="preserve">local_decls' -&gt; ''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">local_decls' -&gt; local_decl local_decls'</t>
+    <t>local_decls' -&gt; ''</t>
+  </si>
+  <si>
+    <t>local_decls' -&gt; local_decl local_decls'</t>
   </si>
   <si>
     <t>local_decl</t>
   </si>
   <si>
-    <t xml:space="preserve">local_decl -&gt; VAR IDENT TYPEOF type_spec SEMI</t>
+    <t>local_decl -&gt; VAR IDENT TYPEOF type_spec SEMI</t>
   </si>
   <si>
     <t>stmt_list</t>
   </si>
   <si>
-    <t xml:space="preserve">stmt_list -&gt; stmt_list'</t>
+    <t>stmt_list -&gt; stmt_list'</t>
   </si>
   <si>
     <t>stmt_list'</t>
   </si>
   <si>
-    <t xml:space="preserve">stmt_list' -&gt; stmt stmt_list'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stmt_list' -&gt; ''</t>
+    <t>stmt_list' -&gt; stmt stmt_list'</t>
+  </si>
+  <si>
+    <t>stmt_list' -&gt; ''</t>
   </si>
   <si>
     <t>stmt</t>
   </si>
   <si>
-    <t xml:space="preserve">stmt -&gt; assign_stmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stmt -&gt; compound_stmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stmt -&gt; print_stmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stmt -&gt; return_stmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stmt -&gt; if_stmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stmt -&gt; while_stmt</t>
+    <t>stmt -&gt; assign_stmt</t>
+  </si>
+  <si>
+    <t>stmt -&gt; compound_stmt</t>
+  </si>
+  <si>
+    <t>stmt -&gt; print_stmt</t>
+  </si>
+  <si>
+    <t>stmt -&gt; return_stmt</t>
+  </si>
+  <si>
+    <t>stmt -&gt; if_stmt</t>
+  </si>
+  <si>
+    <t>stmt -&gt; while_stmt</t>
   </si>
   <si>
     <t>assign_stmt</t>
   </si>
   <si>
-    <t xml:space="preserve">assign_stmt -&gt; IDENT ASSIGN expr SEMI</t>
+    <t>assign_stmt -&gt; IDENT ASSIGN expr SEMI</t>
   </si>
   <si>
     <t>print_stmt</t>
   </si>
   <si>
-    <t xml:space="preserve">print_stmt -&gt; PRINT expr SEMI</t>
+    <t>print_stmt -&gt; PRINT expr SEMI</t>
   </si>
   <si>
     <t>return_stmt</t>
   </si>
   <si>
-    <t xml:space="preserve">return_stmt -&gt; RETURN expr SEMI</t>
+    <t>return_stmt -&gt; RETURN expr SEMI</t>
   </si>
   <si>
     <t>if_stmt</t>
   </si>
   <si>
-    <t xml:space="preserve">if_stmt -&gt; IF LPAREN expr RPAREN THEN stmt_list ELSE stmt_list END</t>
+    <t>if_stmt -&gt; IF LPAREN expr RPAREN THEN stmt_list ELSE stmt_list END</t>
   </si>
   <si>
     <t>while_stmt</t>
   </si>
   <si>
-    <t xml:space="preserve">while_stmt -&gt; WHILE LPAREN expr RPAREN BEGIN stmt_list END</t>
+    <t>while_stmt -&gt; WHILE LPAREN expr RPAREN BEGIN stmt_list END</t>
   </si>
   <si>
     <t>compound_stmt</t>
   </si>
   <si>
-    <t xml:space="preserve">compound_stmt -&gt; BEGIN local_decls stmt_list END</t>
+    <t>compound_stmt -&gt; BEGIN local_decls stmt_list END</t>
   </si>
   <si>
     <t>args</t>
   </si>
   <si>
-    <t xml:space="preserve">args -&gt; arg_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">args -&gt; ''</t>
+    <t>args -&gt; arg_list</t>
+  </si>
+  <si>
+    <t>args -&gt; ''</t>
   </si>
   <si>
     <t>arg_list</t>
   </si>
   <si>
-    <t xml:space="preserve">arg_list -&gt; expr arg_list'</t>
+    <t>arg_list -&gt; expr arg_list'</t>
   </si>
   <si>
     <t>arg_list'</t>
   </si>
   <si>
-    <t xml:space="preserve">arg_list' -&gt; ''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arg_list' -&gt; COMMA expr arg_list'</t>
+    <t>arg_list' -&gt; ''</t>
+  </si>
+  <si>
+    <t>arg_list' -&gt; COMMA expr arg_list'</t>
   </si>
   <si>
     <t>expr</t>
   </si>
   <si>
-    <t xml:space="preserve">expr -&gt; term expr'</t>
+    <t>expr -&gt; term expr'</t>
   </si>
   <si>
     <t>expr'</t>
   </si>
   <si>
-    <t xml:space="preserve">expr' -&gt; ''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expr' -&gt; EXPROP term expr'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expr' -&gt; RELOP term expr'</t>
+    <t>expr' -&gt; ''</t>
+  </si>
+  <si>
+    <t>expr' -&gt; EXPROP term expr'</t>
+  </si>
+  <si>
+    <t>expr' -&gt; RELOP term expr'</t>
   </si>
   <si>
     <t>term</t>
   </si>
   <si>
-    <t xml:space="preserve">term -&gt; factor term'</t>
+    <t>term -&gt; factor term'</t>
   </si>
   <si>
     <t>term'</t>
   </si>
   <si>
-    <t xml:space="preserve">term' -&gt; ''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">term' -&gt; TERMOP factor term'</t>
+    <t>term' -&gt; ''</t>
+  </si>
+  <si>
+    <t>term' -&gt; TERMOP factor term'</t>
   </si>
   <si>
     <t>factor</t>
   </si>
   <si>
-    <t xml:space="preserve">factor -&gt; IDENT factor'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor -&gt; LPAREN expr RPAREN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor -&gt; NUM_LIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor -&gt; BOOL_LIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor -&gt; NEW prim_type LBRACKET expr RBRACKET</t>
+    <t>factor -&gt; IDENT factor'</t>
+  </si>
+  <si>
+    <t>factor -&gt; LPAREN expr RPAREN</t>
+  </si>
+  <si>
+    <t>factor -&gt; NUM_LIT</t>
+  </si>
+  <si>
+    <t>factor -&gt; BOOL_LIT</t>
+  </si>
+  <si>
+    <t>factor -&gt; NEW prim_type LBRACKET expr RBRACKET</t>
   </si>
   <si>
     <t>factor'</t>
   </si>
   <si>
-    <t xml:space="preserve">factor' -&gt; LPAREN args RPAREN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor' -&gt; ''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor' -&gt; LBRACKET expr RBRACKET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor' -&gt; DOT SIZE</t>
+    <t>factor' -&gt; LPAREN args RPAREN</t>
+  </si>
+  <si>
+    <t>factor' -&gt; ''</t>
+  </si>
+  <si>
+    <t>factor' -&gt; LBRACKET expr RBRACKET</t>
+  </si>
+  <si>
+    <t>factor' -&gt; DOT SIZE</t>
   </si>
   <si>
     <t>FIRST</t>
@@ -490,25 +497,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.000000"/>
+      <sz val="12"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.000000"/>
+      <sz val="12"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -522,11 +529,11 @@
   </fills>
   <borders count="5">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -541,7 +548,7 @@
       <bottom style="thin">
         <color rgb="FF545B5E"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -553,21 +560,21 @@
       <top style="thin">
         <color rgb="FF545B5E"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF545B5E"/>
       </left>
-      <right style="none"/>
+      <right/>
       <top style="thin">
         <color rgb="FF545B5E"/>
       </top>
       <bottom style="thin">
         <color rgb="FF545B5E"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -582,31 +589,31 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -619,295 +626,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -1110,55 +837,437 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" hidden="1" min="1" max="1" width="53.00390625"/>
-    <col customWidth="1" hidden="1" min="2" max="2" width="82.57421875"/>
-    <col customWidth="1" min="3" max="3" width="18.57421875"/>
-    <col customWidth="1" min="4" max="4" width="111.140625"/>
-    <col customWidth="1" min="5" max="5" width="44.8515625"/>
-    <col customWidth="1" min="6" max="6" width="14.00390625"/>
-    <col customWidth="1" min="7" max="7" width="43.57421875"/>
-    <col customWidth="1" min="8" max="8" width="22.28125"/>
-    <col customWidth="1" min="9" max="9" width="55.140625"/>
-    <col customWidth="1" min="10" max="10" width="30.00390625"/>
-    <col customWidth="1" min="11" max="11" width="43.57421875"/>
-    <col customWidth="1" min="12" max="12" width="41.57421875"/>
-    <col customWidth="1" min="13" max="13" width="19.7109375"/>
-    <col customWidth="1" min="14" max="14" width="40.140625"/>
-    <col customWidth="1" min="15" max="15" width="39.8515625"/>
-    <col customWidth="1" min="16" max="16" width="37.421875"/>
-    <col customWidth="1" min="17" max="17" width="54.8515625"/>
-    <col customWidth="1" min="18" max="18" width="18.8515625"/>
-    <col customWidth="1" min="19" max="19" width="12.57421875"/>
-    <col customWidth="1" min="20" max="20" width="36.140625"/>
-    <col customWidth="1" min="21" max="21" width="40.421875"/>
-    <col customWidth="1" min="22" max="22" width="77.140625"/>
-    <col customWidth="1" min="24" max="24" width="38.00390625"/>
-    <col customWidth="1" min="25" max="25" width="70.421875"/>
-    <col customWidth="1" min="26" max="26" width="43.57421875"/>
-    <col customWidth="1" min="27" max="27" width="30.140625"/>
-    <col customWidth="1" min="28" max="28" width="32.28125"/>
-    <col customWidth="1" min="29" max="29" width="26.28125"/>
-    <col customWidth="1" min="30" max="30" width="27.28125"/>
-    <col customWidth="1" min="31" max="31" width="59.421875"/>
-    <col customWidth="1" min="32" max="32" width="21.421875"/>
-    <col customWidth="1" min="33" max="33" width="12.00390625"/>
-    <col customWidth="1" min="34" max="34" width="28.421875"/>
-    <col customWidth="1" min="35" max="35" width="34.28125"/>
+    <col min="1" max="1" width="52.5703125" customWidth="1"/>
+    <col min="2" max="2" width="76.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH34"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="82.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="111.140625" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="43.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="55.140625" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
+    <col min="11" max="11" width="43.5703125" customWidth="1"/>
+    <col min="12" max="12" width="41.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="40.140625" customWidth="1"/>
+    <col min="15" max="15" width="39.85546875" customWidth="1"/>
+    <col min="16" max="16" width="37.42578125" customWidth="1"/>
+    <col min="17" max="17" width="54.85546875" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="20" max="20" width="36.140625" customWidth="1"/>
+    <col min="21" max="21" width="40.42578125" customWidth="1"/>
+    <col min="22" max="22" width="77.140625" customWidth="1"/>
+    <col min="24" max="24" width="38" customWidth="1"/>
+    <col min="25" max="25" width="70.42578125" customWidth="1"/>
+    <col min="26" max="26" width="43.5703125" customWidth="1"/>
+    <col min="27" max="27" width="30.140625" customWidth="1"/>
+    <col min="28" max="28" width="32.28515625" customWidth="1"/>
+    <col min="29" max="29" width="26.28515625" customWidth="1"/>
+    <col min="30" max="30" width="27.28515625" customWidth="1"/>
+    <col min="31" max="31" width="59.42578125" customWidth="1"/>
+    <col min="32" max="32" width="21.42578125" customWidth="1"/>
+    <col min="33" max="33" width="12" customWidth="1"/>
+    <col min="34" max="34" width="28.42578125" customWidth="1"/>
+    <col min="35" max="35" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -1258,7 +1367,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" ht="15">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -1300,7 +1409,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" ht="15">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -1342,7 +1451,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" ht="15">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -1384,7 +1493,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" ht="15">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -1424,7 +1533,7 @@
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
     </row>
-    <row r="6" ht="15">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
@@ -1466,7 +1575,7 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
     </row>
-    <row r="7" ht="15">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -1506,7 +1615,7 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
     </row>
-    <row r="8" ht="15">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
@@ -1548,7 +1657,7 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
     </row>
-    <row r="9" ht="15">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
@@ -1588,7 +1697,7 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
     </row>
-    <row r="10" ht="15">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
@@ -1632,7 +1741,7 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
     </row>
-    <row r="11" ht="15">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
@@ -1678,7 +1787,7 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
     </row>
-    <row r="12" ht="15">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
@@ -1722,7 +1831,7 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
     </row>
-    <row r="13" ht="15">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
@@ -1782,7 +1891,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" ht="15">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
@@ -1842,7 +1951,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" ht="15">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
@@ -1882,7 +1991,7 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
     </row>
-    <row r="16" ht="15">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
@@ -1936,7 +2045,7 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
     </row>
-    <row r="17" ht="15">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
@@ -1990,7 +2099,7 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
     </row>
-    <row r="18" ht="15">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
@@ -2040,7 +2149,7 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
     </row>
-    <row r="19" ht="15">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
@@ -2080,7 +2189,7 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
     </row>
-    <row r="20" ht="15">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
@@ -2120,7 +2229,7 @@
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
     </row>
-    <row r="21" ht="15">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
@@ -2160,7 +2269,7 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
     </row>
-    <row r="22" ht="15">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
@@ -2200,7 +2309,7 @@
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
     </row>
-    <row r="23" ht="15">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
@@ -2240,7 +2349,7 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
     </row>
-    <row r="24" ht="15">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
@@ -2280,7 +2389,7 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
     </row>
-    <row r="25" ht="15">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
@@ -2330,7 +2439,7 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
     </row>
-    <row r="26" ht="15">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
@@ -2378,7 +2487,7 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
     </row>
-    <row r="27" ht="15">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
@@ -2420,7 +2529,7 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
     </row>
-    <row r="28" ht="15">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
@@ -2468,7 +2577,7 @@
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
     </row>
-    <row r="29" ht="15">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
@@ -2518,7 +2627,7 @@
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
     </row>
-    <row r="30" ht="15">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
@@ -2566,7 +2675,7 @@
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
     </row>
-    <row r="31" ht="15">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
@@ -2618,7 +2727,7 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
     </row>
-    <row r="32" ht="15">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
@@ -2666,7 +2775,7 @@
       <c r="AG32" s="3"/>
       <c r="AH32" s="4"/>
     </row>
-    <row r="33" ht="15">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
@@ -2724,399 +2833,11 @@
       <c r="AG33" s="5"/>
       <c r="AH33" s="6"/>
     </row>
-    <row r="34" ht="14.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" ht="14.25"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="52.57421875"/>
-    <col customWidth="1" min="2" max="2" width="76.28125"/>
-    <col customWidth="1" min="3" max="3" width="18.140625"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" ht="15">
-      <c r="A2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" ht="15">
-      <c r="A3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" ht="15">
-      <c r="A4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" ht="15">
-      <c r="A5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" ht="15">
-      <c r="A6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" ht="15">
-      <c r="A7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" ht="15">
-      <c r="A8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" ht="15">
-      <c r="A9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" ht="15">
-      <c r="A10" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" ht="15">
-      <c r="A11" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" ht="15">
-      <c r="A12" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" ht="15">
-      <c r="A13" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" ht="15">
-      <c r="A14" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" ht="15">
-      <c r="A15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" ht="15">
-      <c r="A16" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" ht="15">
-      <c r="A17" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" ht="15">
-      <c r="A18" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" ht="15">
-      <c r="A19" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" ht="15">
-      <c r="A20" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" ht="15">
-      <c r="A21" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" ht="15">
-      <c r="A22" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" ht="15">
-      <c r="A23" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" ht="15">
-      <c r="A24" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" ht="15">
-      <c r="A25" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" ht="15">
-      <c r="A26" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" ht="15">
-      <c r="A27" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" ht="15">
-      <c r="A28" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" ht="15">
-      <c r="A29" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" ht="15">
-      <c r="A30" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" ht="15">
-      <c r="A31" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" ht="15">
-      <c r="A32" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" ht="15">
-      <c r="A33" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/parse table.xlsx
+++ b/parse table.xlsx
@@ -1,31 +1,228 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\there\IdeaProjects\470_SyntaxChecker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A731DF4C-657C-4FFB-A713-744D2F6DE293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="FirstFollow" sheetId="2" r:id="rId1"/>
-    <sheet name="Parse Table" sheetId="1" r:id="rId2"/>
+    <sheet name="FirstFollow" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Parse Table" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+  <si>
+    <t>FIRST</t>
+  </si>
+  <si>
+    <t>FOLLOW</t>
+  </si>
   <si>
     <t>Nonterminal</t>
   </si>
   <si>
+    <t>{'',FUNC}</t>
+  </si>
+  <si>
+    <t>{$}</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>decl_list</t>
+  </si>
+  <si>
+    <t>decl_list'</t>
+  </si>
+  <si>
+    <t>{FUNC}</t>
+  </si>
+  <si>
+    <t>{$,FUNC}</t>
+  </si>
+  <si>
+    <t>fun_decl</t>
+  </si>
+  <si>
+    <t>{'',IDENT}</t>
+  </si>
+  <si>
+    <t>{RPAREN}</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>{IDENT}</t>
+  </si>
+  <si>
+    <t>param_list</t>
+  </si>
+  <si>
+    <t>{COMMA,''}</t>
+  </si>
+  <si>
+    <t>param_list'</t>
+  </si>
+  <si>
+    <t>{COMMA,RPAREN}</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>{NUM,BOOL,VOID}</t>
+  </si>
+  <si>
+    <t>{COMMA,RPAREN,SEMI}</t>
+  </si>
+  <si>
+    <t>type_spec</t>
+  </si>
+  <si>
+    <t>{LBRACKET,''}</t>
+  </si>
+  <si>
+    <t>type_spec'</t>
+  </si>
+  <si>
+    <t>{LPAREN,LBRACKET,COMMA,RPAREN,SEMI}</t>
+  </si>
+  <si>
+    <t>prim_type</t>
+  </si>
+  <si>
+    <t>{'',VAR}</t>
+  </si>
+  <si>
+    <t>{$,FUNC,IDENT,PRINT,RETURN,IF,WHILE,BEGIN,END,ELSE}</t>
+  </si>
+  <si>
+    <t>local_decls</t>
+  </si>
+  <si>
+    <t>local_decls'</t>
+  </si>
+  <si>
+    <t>{VAR}</t>
+  </si>
+  <si>
+    <t>{$,FUNC,IDENT,PRINT,RETURN,IF,WHILE,BEGIN,END,VAR,ELSE}</t>
+  </si>
+  <si>
+    <t>local_decl</t>
+  </si>
+  <si>
+    <t>{'',IDENT,PRINT,RETURN,IF,WHILE,BEGIN}</t>
+  </si>
+  <si>
+    <t>{END,ELSE}</t>
+  </si>
+  <si>
+    <t>stmt_list</t>
+  </si>
+  <si>
+    <t>stmt_list'</t>
+  </si>
+  <si>
+    <t>{IDENT,PRINT,RETURN,IF,WHILE,BEGIN}</t>
+  </si>
+  <si>
+    <t>{END,IDENT,PRINT,RETURN,IF,WHILE,BEGIN,ELSE}</t>
+  </si>
+  <si>
+    <t>stmt</t>
+  </si>
+  <si>
+    <t>assign_stmt</t>
+  </si>
+  <si>
+    <t>{PRINT}</t>
+  </si>
+  <si>
+    <t>print_stmt</t>
+  </si>
+  <si>
+    <t>{RETURN}</t>
+  </si>
+  <si>
+    <t>return_stmt</t>
+  </si>
+  <si>
+    <t>{IF}</t>
+  </si>
+  <si>
+    <t>if_stmt</t>
+  </si>
+  <si>
+    <t>{WHILE}</t>
+  </si>
+  <si>
+    <t>while_stmt</t>
+  </si>
+  <si>
+    <t>{BEGIN}</t>
+  </si>
+  <si>
+    <t>compound_stmt</t>
+  </si>
+  <si>
+    <t>{'',IDENT,LPAREN,NUM_LIT,BOOL_LIT,NEW}</t>
+  </si>
+  <si>
+    <t>args</t>
+  </si>
+  <si>
+    <t>{IDENT,LPAREN,NUM_LIT,BOOL_LIT,NEW}</t>
+  </si>
+  <si>
+    <t>arg_list</t>
+  </si>
+  <si>
+    <t>arg_list'</t>
+  </si>
+  <si>
+    <t>{SEMI,RPAREN,COMMA,RBRACKET}</t>
+  </si>
+  <si>
+    <t>expr</t>
+  </si>
+  <si>
+    <t>{EXPROP,RELOP,''}</t>
+  </si>
+  <si>
+    <t>expr'</t>
+  </si>
+  <si>
+    <t>{EXPROP,RELOP,SEMI,RPAREN,COMMA,RBRACKET}</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>{TERMOP,''}</t>
+  </si>
+  <si>
+    <t>term'</t>
+  </si>
+  <si>
+    <t>{TERMOP,EXPROP,RELOP,SEMI,RPAREN,COMMA,RBRACKET}</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>{LPAREN,LBRACKET,DOT,''}</t>
+  </si>
+  <si>
+    <t>factor'</t>
+  </si>
+  <si>
     <t>FUNC</t>
   </si>
   <si>
@@ -119,403 +316,199 @@
     <t>$</t>
   </si>
   <si>
-    <t>program</t>
-  </si>
-  <si>
-    <t>program -&gt; decl_list</t>
-  </si>
-  <si>
-    <t>decl_list</t>
-  </si>
-  <si>
-    <t>decl_list -&gt; decl_list'</t>
-  </si>
-  <si>
-    <t>decl_list'</t>
-  </si>
-  <si>
-    <t>decl_list' -&gt; fun_decl decl_list'</t>
-  </si>
-  <si>
-    <t>decl_list' -&gt; ''</t>
-  </si>
-  <si>
-    <t>fun_decl</t>
-  </si>
-  <si>
-    <t>fun_decl -&gt; FUNC IDENT TYPEOF prim_type LPAREN params RPAREN BEGIN local_decls stmt_list END</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t>params -&gt; param_list</t>
-  </si>
-  <si>
-    <t>params -&gt; ''</t>
-  </si>
-  <si>
-    <t>param_list</t>
-  </si>
-  <si>
-    <t>param_list -&gt; param param_list'</t>
-  </si>
-  <si>
-    <t>param_list'</t>
-  </si>
-  <si>
-    <t>param_list' -&gt; ''</t>
-  </si>
-  <si>
-    <t>param_list' -&gt; COMMA param param_list'</t>
-  </si>
-  <si>
-    <t>param</t>
-  </si>
-  <si>
-    <t>param -&gt; IDENT TYPEOF type_spec</t>
-  </si>
-  <si>
-    <t>type_spec</t>
-  </si>
-  <si>
-    <t>type_spec -&gt; prim_type type_spec'</t>
-  </si>
-  <si>
-    <t>type_spec'</t>
-  </si>
-  <si>
-    <t>type_spec' -&gt; ''</t>
-  </si>
-  <si>
-    <t>type_spec' -&gt; LBRACKET RBRACKET</t>
-  </si>
-  <si>
-    <t>prim_type</t>
-  </si>
-  <si>
-    <t>prim_type -&gt; NUM</t>
-  </si>
-  <si>
-    <t>prim_type -&gt; BOOL</t>
-  </si>
-  <si>
-    <t>prim_type -&gt; VOID</t>
-  </si>
-  <si>
-    <t>local_decls</t>
-  </si>
-  <si>
-    <t>local_decls -&gt; local_decls'</t>
-  </si>
-  <si>
-    <t>local_decls'</t>
-  </si>
-  <si>
-    <t>local_decls' -&gt; ''</t>
-  </si>
-  <si>
-    <t>local_decls' -&gt; local_decl local_decls'</t>
-  </si>
-  <si>
-    <t>local_decl</t>
-  </si>
-  <si>
-    <t>local_decl -&gt; VAR IDENT TYPEOF type_spec SEMI</t>
-  </si>
-  <si>
-    <t>stmt_list</t>
-  </si>
-  <si>
-    <t>stmt_list -&gt; stmt_list'</t>
-  </si>
-  <si>
-    <t>stmt_list'</t>
-  </si>
-  <si>
-    <t>stmt_list' -&gt; stmt stmt_list'</t>
-  </si>
-  <si>
-    <t>stmt_list' -&gt; ''</t>
-  </si>
-  <si>
-    <t>stmt</t>
-  </si>
-  <si>
-    <t>stmt -&gt; assign_stmt</t>
-  </si>
-  <si>
-    <t>stmt -&gt; compound_stmt</t>
-  </si>
-  <si>
-    <t>stmt -&gt; print_stmt</t>
-  </si>
-  <si>
-    <t>stmt -&gt; return_stmt</t>
-  </si>
-  <si>
-    <t>stmt -&gt; if_stmt</t>
-  </si>
-  <si>
-    <t>stmt -&gt; while_stmt</t>
-  </si>
-  <si>
-    <t>assign_stmt</t>
-  </si>
-  <si>
-    <t>assign_stmt -&gt; IDENT ASSIGN expr SEMI</t>
-  </si>
-  <si>
-    <t>print_stmt</t>
-  </si>
-  <si>
-    <t>print_stmt -&gt; PRINT expr SEMI</t>
-  </si>
-  <si>
-    <t>return_stmt</t>
-  </si>
-  <si>
-    <t>return_stmt -&gt; RETURN expr SEMI</t>
-  </si>
-  <si>
-    <t>if_stmt</t>
-  </si>
-  <si>
-    <t>if_stmt -&gt; IF LPAREN expr RPAREN THEN stmt_list ELSE stmt_list END</t>
-  </si>
-  <si>
-    <t>while_stmt</t>
-  </si>
-  <si>
-    <t>while_stmt -&gt; WHILE LPAREN expr RPAREN BEGIN stmt_list END</t>
-  </si>
-  <si>
-    <t>compound_stmt</t>
-  </si>
-  <si>
-    <t>compound_stmt -&gt; BEGIN local_decls stmt_list END</t>
-  </si>
-  <si>
-    <t>args</t>
-  </si>
-  <si>
-    <t>args -&gt; arg_list</t>
-  </si>
-  <si>
-    <t>args -&gt; ''</t>
-  </si>
-  <si>
-    <t>arg_list</t>
-  </si>
-  <si>
-    <t>arg_list -&gt; expr arg_list'</t>
-  </si>
-  <si>
-    <t>arg_list'</t>
-  </si>
-  <si>
-    <t>arg_list' -&gt; ''</t>
-  </si>
-  <si>
-    <t>arg_list' -&gt; COMMA expr arg_list'</t>
-  </si>
-  <si>
-    <t>expr</t>
-  </si>
-  <si>
-    <t>expr -&gt; term expr'</t>
-  </si>
-  <si>
-    <t>expr'</t>
-  </si>
-  <si>
-    <t>expr' -&gt; ''</t>
-  </si>
-  <si>
-    <t>expr' -&gt; EXPROP term expr'</t>
-  </si>
-  <si>
-    <t>expr' -&gt; RELOP term expr'</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>term -&gt; factor term'</t>
-  </si>
-  <si>
-    <t>term'</t>
-  </si>
-  <si>
-    <t>term' -&gt; ''</t>
-  </si>
-  <si>
-    <t>term' -&gt; TERMOP factor term'</t>
-  </si>
-  <si>
-    <t>factor</t>
-  </si>
-  <si>
-    <t>factor -&gt; IDENT factor'</t>
-  </si>
-  <si>
-    <t>factor -&gt; LPAREN expr RPAREN</t>
-  </si>
-  <si>
-    <t>factor -&gt; NUM_LIT</t>
-  </si>
-  <si>
-    <t>factor -&gt; BOOL_LIT</t>
-  </si>
-  <si>
-    <t>factor -&gt; NEW prim_type LBRACKET expr RBRACKET</t>
-  </si>
-  <si>
-    <t>factor'</t>
-  </si>
-  <si>
-    <t>factor' -&gt; LPAREN args RPAREN</t>
-  </si>
-  <si>
-    <t>factor' -&gt; ''</t>
-  </si>
-  <si>
-    <t>factor' -&gt; LBRACKET expr RBRACKET</t>
-  </si>
-  <si>
-    <t>factor' -&gt; DOT SIZE</t>
-  </si>
-  <si>
-    <t>FIRST</t>
-  </si>
-  <si>
-    <t>FOLLOW</t>
-  </si>
-  <si>
-    <t>{'',FUNC}</t>
-  </si>
-  <si>
-    <t>{$}</t>
-  </si>
-  <si>
-    <t>{FUNC}</t>
-  </si>
-  <si>
-    <t>{$,FUNC}</t>
-  </si>
-  <si>
-    <t>{'',IDENT}</t>
-  </si>
-  <si>
-    <t>{RPAREN}</t>
-  </si>
-  <si>
-    <t>{IDENT}</t>
-  </si>
-  <si>
-    <t>{COMMA,''}</t>
-  </si>
-  <si>
-    <t>{COMMA,RPAREN}</t>
-  </si>
-  <si>
-    <t>{NUM,BOOL,VOID}</t>
-  </si>
-  <si>
-    <t>{COMMA,RPAREN,SEMI}</t>
-  </si>
-  <si>
-    <t>{LBRACKET,''}</t>
-  </si>
-  <si>
-    <t>{LPAREN,LBRACKET,COMMA,RPAREN,SEMI}</t>
-  </si>
-  <si>
-    <t>{'',VAR}</t>
-  </si>
-  <si>
-    <t>{$,FUNC,IDENT,PRINT,RETURN,IF,WHILE,BEGIN,END,ELSE}</t>
-  </si>
-  <si>
-    <t>{VAR}</t>
-  </si>
-  <si>
-    <t>{$,FUNC,IDENT,PRINT,RETURN,IF,WHILE,BEGIN,END,VAR,ELSE}</t>
-  </si>
-  <si>
-    <t>{'',IDENT,PRINT,RETURN,IF,WHILE,BEGIN}</t>
-  </si>
-  <si>
-    <t>{END,ELSE}</t>
-  </si>
-  <si>
-    <t>{IDENT,PRINT,RETURN,IF,WHILE,BEGIN}</t>
-  </si>
-  <si>
-    <t>{END,IDENT,PRINT,RETURN,IF,WHILE,BEGIN,ELSE}</t>
-  </si>
-  <si>
-    <t>{PRINT}</t>
-  </si>
-  <si>
-    <t>{RETURN}</t>
-  </si>
-  <si>
-    <t>{IF}</t>
-  </si>
-  <si>
-    <t>{WHILE}</t>
-  </si>
-  <si>
-    <t>{BEGIN}</t>
-  </si>
-  <si>
-    <t>{'',IDENT,LPAREN,NUM_LIT,BOOL_LIT,NEW}</t>
-  </si>
-  <si>
-    <t>{IDENT,LPAREN,NUM_LIT,BOOL_LIT,NEW}</t>
-  </si>
-  <si>
-    <t>{SEMI,RPAREN,COMMA,RBRACKET}</t>
-  </si>
-  <si>
-    <t>{EXPROP,RELOP,''}</t>
-  </si>
-  <si>
-    <t>{EXPROP,RELOP,SEMI,RPAREN,COMMA,RBRACKET}</t>
-  </si>
-  <si>
-    <t>{TERMOP,''}</t>
-  </si>
-  <si>
-    <t>{TERMOP,EXPROP,RELOP,SEMI,RPAREN,COMMA,RBRACKET}</t>
-  </si>
-  <si>
-    <t>{LPAREN,LBRACKET,DOT,''}</t>
+    <t xml:space="preserve">program -&gt; decl_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decl_list -&gt; decl_list'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decl_list' -&gt; fun_decl decl_list'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decl_list' -&gt; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fun_decl -&gt; FUNC IDENT TYPEOF prim_type LPAREN params RPAREN BEGIN local_decls stmt_list END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">params -&gt; param_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">params -&gt; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">param_list -&gt; param param_list'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">param_list' -&gt; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">param_list' -&gt; COMMA param param_list'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">param -&gt; IDENT TYPEOF type_spec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type_spec -&gt; prim_type type_spec'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type_spec' -&gt; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type_spec' -&gt; LBRACKET RBRACKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prim_type -&gt; NUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prim_type -&gt; BOOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prim_type -&gt; VOID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local_decls -&gt; local_decls'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local_decls' -&gt; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local_decls' -&gt; local_decl local_decls'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local_decl -&gt; VAR IDENT TYPEOF type_spec SEMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stmt_list -&gt; stmt_list'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stmt_list' -&gt; stmt stmt_list'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stmt_list' -&gt; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stmt -&gt; assign_stmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stmt -&gt; compound_stmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stmt -&gt; print_stmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stmt -&gt; return_stmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stmt -&gt; if_stmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stmt -&gt; while_stmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign_stmt -&gt; IDENT ASSIGN expr SEMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print_stmt -&gt; PRINT expr SEMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return_stmt -&gt; RETURN expr SEMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if_stmt -&gt; IF LPAREN expr RPAREN THEN stmt_list ELSE stmt_list END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while_stmt -&gt; WHILE LPAREN expr RPAREN BEGIN stmt_list END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compound_stmt -&gt; BEGIN local_decls stmt_list END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">args -&gt; arg_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">args -&gt; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arg_list -&gt; expr arg_list'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arg_list' -&gt; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arg_list' -&gt; COMMA expr arg_list'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expr -&gt; term expr'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expr' -&gt; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expr' -&gt; EXPROP term expr'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expr' -&gt; RELOP term expr'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term -&gt; factor term'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term' -&gt; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term' -&gt; TERMOP factor term'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor -&gt; IDENT factor'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor -&gt; LPAREN expr RPAREN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor -&gt; NUM_LIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor -&gt; BOOL_LIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor -&gt; NEW prim_type LBRACKET expr RBRACKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor' -&gt; LPAREN args RPAREN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor' -&gt; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor' -&gt; LBRACKET expr RBRACKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor' -&gt; DOT SIZE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -529,11 +522,11 @@
   </fills>
   <borders count="5">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -548,7 +541,7 @@
       <bottom style="thin">
         <color rgb="FF545B5E"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -560,21 +553,21 @@
       <top style="thin">
         <color rgb="FF545B5E"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF545B5E"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
         <color rgb="FF545B5E"/>
       </top>
       <bottom style="thin">
         <color rgb="FF545B5E"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -589,31 +582,31 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -626,15 +619,295 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -837,544 +1110,547 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" customWidth="1"/>
-    <col min="2" max="2" width="76.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="52.5703125"/>
+    <col customWidth="1" min="2" max="2" width="76.28515625"/>
+    <col customWidth="1" min="3" max="3" width="18.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" ht="15">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="15">
       <c r="A2" s="2" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="15">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="15">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="15">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="15">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="15">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="15">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" ht="15">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="15">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="15">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" ht="15">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" ht="15">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" ht="15">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" ht="15">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" ht="15">
+      <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="17" ht="15">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" ht="15">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" ht="15">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="20" ht="15">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" ht="15">
+      <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" ht="15">
+      <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" ht="15">
+      <c r="A23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    <row r="24" ht="15">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    <row r="25" ht="15">
+      <c r="A25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    <row r="26" ht="15">
+      <c r="A26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" ht="15">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    <row r="28" ht="15">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" ht="15">
+      <c r="A29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="2" t="s">
+    <row r="30" ht="15">
+      <c r="A30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    <row r="31" ht="15">
+      <c r="A31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" ht="15">
+      <c r="A32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" ht="15">
+      <c r="A33" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="B33" s="2" t="s">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0"/>
+    <sheetView topLeftCell="V1" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="53" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="82.5703125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="111.140625" customWidth="1"/>
-    <col min="5" max="5" width="44.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="43.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="9" max="9" width="55.140625" customWidth="1"/>
-    <col min="10" max="10" width="30" customWidth="1"/>
-    <col min="11" max="11" width="43.5703125" customWidth="1"/>
-    <col min="12" max="12" width="41.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="40.140625" customWidth="1"/>
-    <col min="15" max="15" width="39.85546875" customWidth="1"/>
-    <col min="16" max="16" width="37.42578125" customWidth="1"/>
-    <col min="17" max="17" width="54.85546875" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" customWidth="1"/>
-    <col min="20" max="20" width="36.140625" customWidth="1"/>
-    <col min="21" max="21" width="40.42578125" customWidth="1"/>
-    <col min="22" max="22" width="77.140625" customWidth="1"/>
-    <col min="24" max="24" width="38" customWidth="1"/>
-    <col min="25" max="25" width="70.42578125" customWidth="1"/>
-    <col min="26" max="26" width="43.5703125" customWidth="1"/>
-    <col min="27" max="27" width="30.140625" customWidth="1"/>
-    <col min="28" max="28" width="32.28515625" customWidth="1"/>
-    <col min="29" max="29" width="26.28515625" customWidth="1"/>
-    <col min="30" max="30" width="27.28515625" customWidth="1"/>
-    <col min="31" max="31" width="59.42578125" customWidth="1"/>
-    <col min="32" max="32" width="21.42578125" customWidth="1"/>
-    <col min="33" max="33" width="12" customWidth="1"/>
-    <col min="34" max="34" width="28.42578125" customWidth="1"/>
-    <col min="35" max="35" width="34.28515625" customWidth="1"/>
+    <col customWidth="1" hidden="1" min="1" max="1" width="53"/>
+    <col customWidth="1" hidden="1" min="2" max="2" width="82.5703125"/>
+    <col customWidth="1" min="3" max="3" width="18.5703125"/>
+    <col customWidth="1" min="4" max="4" width="111.140625"/>
+    <col customWidth="1" min="5" max="5" width="44.85546875"/>
+    <col customWidth="1" min="6" max="6" width="14"/>
+    <col customWidth="1" min="7" max="7" width="43.5703125"/>
+    <col customWidth="1" min="8" max="8" width="17.8515625"/>
+    <col customWidth="1" min="9" max="9" width="55.140625"/>
+    <col customWidth="1" min="10" max="10" width="30"/>
+    <col customWidth="1" min="11" max="11" width="43.5703125"/>
+    <col customWidth="1" min="12" max="12" width="41.5703125"/>
+    <col customWidth="1" min="13" max="13" width="11.8515625"/>
+    <col customWidth="1" min="14" max="14" width="40.140625"/>
+    <col customWidth="1" min="15" max="15" width="39.85546875"/>
+    <col customWidth="1" min="16" max="16" width="37.42578125"/>
+    <col customWidth="1" min="17" max="17" width="54.85546875"/>
+    <col customWidth="1" min="18" max="18" width="17.421875"/>
+    <col customWidth="1" min="19" max="19" width="12.5703125"/>
+    <col customWidth="1" min="20" max="20" width="36.140625"/>
+    <col customWidth="1" min="21" max="21" width="40.42578125"/>
+    <col customWidth="1" min="22" max="22" width="77.140625"/>
+    <col customWidth="1" min="24" max="24" width="29.7109375"/>
+    <col customWidth="1" min="25" max="25" width="70.42578125"/>
+    <col customWidth="1" min="26" max="26" width="31.7109375"/>
+    <col customWidth="1" min="27" max="27" width="30.140625"/>
+    <col customWidth="1" min="28" max="28" width="32.28515625"/>
+    <col customWidth="1" min="29" max="29" width="26.28515625"/>
+    <col customWidth="1" min="30" max="30" width="27.28515625"/>
+    <col customWidth="1" min="31" max="31" width="59.42578125"/>
+    <col customWidth="1" min="32" max="32" width="21.42578125"/>
+    <col customWidth="1" min="33" max="33" width="12"/>
+    <col customWidth="1" min="34" max="34" width="28.42578125"/>
+    <col customWidth="1" min="35" max="35" width="34.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" ht="30">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" ht="15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1406,17 +1682,17 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" ht="15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1448,17 +1724,17 @@
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
       <c r="AH3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" ht="15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1490,17 +1766,17 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
       <c r="AH4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" ht="15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1533,20 +1809,20 @@
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" ht="15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1575,15 +1851,15 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" ht="15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1615,23 +1891,23 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" ht="15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="2" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="2" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1657,15 +1933,15 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" ht="15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1697,11 +1973,11 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" ht="15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1714,13 +1990,13 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -1741,26 +2017,26 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" ht="15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1768,7 +2044,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1787,11 +2063,11 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" ht="15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1804,13 +2080,13 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -1831,26 +2107,26 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" ht="15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1859,25 +2135,25 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="W13" s="3"/>
       <c r="X13" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
@@ -1888,29 +2164,29 @@
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
       <c r="AH13" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" ht="15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1919,25 +2195,25 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="2" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
@@ -1948,14 +2224,14 @@
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" ht="15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1971,7 +2247,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="2" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -1991,24 +2267,24 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" ht="15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="2" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2020,20 +2296,20 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="2" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="W16" s="3"/>
       <c r="X16" s="2" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
@@ -2045,24 +2321,24 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" ht="15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="2" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2074,20 +2350,20 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="2" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="2" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
@@ -2099,21 +2375,21 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" ht="15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="2" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -2126,18 +2402,18 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="2" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="2" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
@@ -2149,15 +2425,15 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" ht="15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -2189,11 +2465,11 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" ht="15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -2212,7 +2488,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="2" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -2229,11 +2505,11 @@
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" ht="15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2253,7 +2529,7 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="2" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
@@ -2269,11 +2545,11 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" ht="15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2294,7 +2570,7 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="2" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
@@ -2309,11 +2585,11 @@
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" ht="15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2337,7 +2613,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="2" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
@@ -2349,11 +2625,11 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" ht="15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -2361,7 +2637,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="2" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -2389,22 +2665,22 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" ht="15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="2" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="2" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -2427,31 +2703,31 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="2" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" ht="15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="2" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="2" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -2475,35 +2751,35 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="2" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" ht="15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="2" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="2" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -2529,19 +2805,19 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" ht="15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="2" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="2" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -2565,46 +2841,46 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="2" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" ht="15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="2" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="2" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="2" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="2" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -2614,10 +2890,10 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="2" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
@@ -2627,19 +2903,19 @@
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" ht="15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="2" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="2" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -2663,46 +2939,46 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="2" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" ht="15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="2" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="2" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="2" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="2" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
@@ -2712,13 +2988,13 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="2" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
@@ -2727,19 +3003,19 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" ht="15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="2" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="2" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -2763,50 +3039,50 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="2" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
       <c r="AH32" s="4"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" ht="15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="2" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="2" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="2" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
@@ -2816,28 +3092,30 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="2" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
       <c r="AF33" s="2" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="AG33" s="5"/>
       <c r="AH33" s="6"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>